--- a/statistics/HistoricalDistanceData/historical_distance/Q6155782-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q6155782-en.xlsx
@@ -31,49 +31,49 @@
     <t>uri</t>
   </si>
   <si>
+    <t>National Weather Service</t>
+  </si>
+  <si>
     <t>Man killed, seven injured on icy mountain highway</t>
   </si>
   <si>
     <t>6 snowmobilers rescued from remote outpost</t>
   </si>
   <si>
-    <t>National Weather Service</t>
-  </si>
-  <si>
     <t>WPC Surface Analysis Archive</t>
   </si>
   <si>
     <t>Powerful Pacific storm begins to impact the US West Coast</t>
   </si>
   <si>
+    <t>2008-01-04T00:00:00UTC</t>
+  </si>
+  <si>
     <t>2021-01-07T09:16:00UTC</t>
   </si>
   <si>
     <t>2008-01-07T22:11:54UTC</t>
   </si>
   <si>
-    <t>2008-01-04T00:00:00UTC</t>
-  </si>
-  <si>
     <t>1-01-01T00:00:00UTC</t>
   </si>
   <si>
     <t>unknown</t>
   </si>
   <si>
+    <t>day_2_to_30</t>
+  </si>
+  <si>
     <t>day_31_beyond</t>
   </si>
   <si>
-    <t>day_2_to_30</t>
+    <t>http://www.wrh.noaa.gov/pdt/reference/20080104/index.php?wfo=pdt</t>
   </si>
   <si>
     <t>http://www.katu.com/news/13486032.html</t>
   </si>
   <si>
     <t>https://www.nbcnews.com/id/22539077</t>
-  </si>
-  <si>
-    <t>http://www.wrh.noaa.gov/pdt/reference/20080104/index.php?wfo=pdt</t>
   </si>
   <si>
     <t>http://www.wpc.ncep.noaa.gov/archives/web_pages/sfc/sfc_archive_maps.php?arcdate=10/07/2009&amp;selmap=2009100715&amp;maptype=satsfcnps</t>
@@ -481,7 +481,7 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>4755</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -498,7 +498,7 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>4755</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>19</v>
